--- a/Documents/4. 요구분석/3. 변수명명/변수명명서.xlsx
+++ b/Documents/4. 요구분석/3. 변수명명/변수명명서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\4. 요구분석\3. 변수명명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0247A5C-6C69-4368-BC16-2CB87B09FDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71472235-818C-4D58-938A-B881F816A6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="1440" windowWidth="15720" windowHeight="15165" xr2:uid="{AB4D9E23-A312-4F95-8827-CE873524A655}"/>
+    <workbookView xWindow="2580" yWindow="1035" windowWidth="23160" windowHeight="15405" xr2:uid="{AB4D9E23-A312-4F95-8827-CE873524A655}"/>
   </bookViews>
   <sheets>
     <sheet name="변수명명" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="154">
   <si>
     <t>번호</t>
   </si>
@@ -587,6 +587,14 @@
   </si>
   <si>
     <t>ex) searchProfile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> favorite</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -720,9 +728,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -743,6 +748,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296AC885-3EDE-421A-98B9-B19C0A01A2F9}">
-  <dimension ref="B2:F49"/>
+  <dimension ref="B2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1074,16 +1082,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1100,7 +1108,7 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
@@ -1613,13 +1621,13 @@
       <c r="B40" s="1">
         <v>38</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1627,13 +1635,13 @@
       <c r="B41" s="1">
         <v>39</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1641,13 +1649,13 @@
       <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1734,7 +1742,7 @@
       <c r="E48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="8"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
@@ -1749,7 +1757,21 @@
       <c r="E49" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1788,7 +1810,7 @@
       <c r="B3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1796,10 +1818,10 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1807,8 +1829,8 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1816,38 +1838,38 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="2:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="12" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="12"/>
+      <c r="C7" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>143</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1855,8 +1877,8 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="5" t="s">
         <v>146</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1864,17 +1886,17 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1885,7 +1907,7 @@
       <c r="B14" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1896,7 +1918,7 @@
       <c r="B15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1907,7 +1929,7 @@
       <c r="B16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="4" t="s">
